--- a/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_5_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1000000/Output_5_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1181447.09773415</v>
+        <v>1152723.192514891</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1859783.096704493</v>
+        <v>1861185.768789562</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4182642.717252408</v>
+        <v>2357862.325109811</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10112394.73455271</v>
+        <v>10959279.35424407</v>
       </c>
     </row>
     <row r="11">
@@ -667,19 +667,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>278.7329666858698</v>
       </c>
       <c r="G2" t="n">
-        <v>323.9918595228954</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -822,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -837,10 +837,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>102.1596420508065</v>
       </c>
       <c r="T4" t="n">
-        <v>99.34508049624269</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>249.4237682275164</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>2.18624263408637</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -955,13 +955,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -989,7 +989,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H6" t="n">
         <v>104.3883541553076</v>
@@ -1056,28 +1056,28 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>59.66385641544559</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>65.25024693872076</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1098,16 +1098,16 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
@@ -1180,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>24.77252706518756</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>19.77778968381029</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,25 +1293,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>14.46389722690856</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>67.06388118995342</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>45.19995918853699</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1369,28 +1369,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>310.3683343930356</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>413.3542113413185</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>319.5194584381684</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>135.3553342543435</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>184.5808806410313</v>
+        <v>214.5661762382494</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2241675082893</v>
+        <v>251.1897708139312</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1463,13 +1463,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>136.5310119231965</v>
+        <v>136.3009637486068</v>
       </c>
       <c r="H12" t="n">
-        <v>104.3883541553076</v>
+        <v>102.1665731007174</v>
       </c>
       <c r="I12" t="n">
-        <v>61.42221998250818</v>
+        <v>53.5017016907132</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>49.71123688229331</v>
+        <v>35.42807039329335</v>
       </c>
       <c r="S12" t="n">
-        <v>156.5912426325231</v>
+        <v>152.3181986878413</v>
       </c>
       <c r="T12" t="n">
-        <v>196.8897623984489</v>
+        <v>195.9625068175369</v>
       </c>
       <c r="U12" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8727930405404</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1530,28 +1530,28 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>18.37682225755673</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>7.870184383842953</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1590,13 +1590,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1621,13 +1621,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H14" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4960408938904</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>154.6528871281402</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.1547862223006</v>
+        <v>179.7188787253435</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>161.01783325507</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1703,10 +1703,10 @@
         <v>136.0669836643703</v>
       </c>
       <c r="H15" t="n">
-        <v>99.90681807664346</v>
+        <v>99.90681807664349</v>
       </c>
       <c r="I15" t="n">
-        <v>45.44580843958671</v>
+        <v>45.44580843958679</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20.90078060183517</v>
+        <v>20.90078060183532</v>
       </c>
       <c r="S15" t="n">
         <v>147.9721212459916</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1821,19 +1821,19 @@
         <v>223.3729047207587</v>
       </c>
       <c r="U16" t="n">
-        <v>286.260654658097</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>228.1641319420669</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>6.170930364317767</v>
       </c>
     </row>
     <row r="17">
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>167.5797748098271</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1858,10 +1858,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>412.7093048191902</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H17" t="n">
-        <v>312.9148095184212</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1897,16 +1897,16 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>120.1347812988432</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1937,13 +1937,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>135.9559083391491</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H18" t="n">
-        <v>98.83406427779749</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I18" t="n">
-        <v>41.6215044791231</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,16 +1970,16 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>14.00436698854561</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S18" t="n">
-        <v>145.9089457972574</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T18" t="n">
-        <v>194.5716913732756</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U18" t="n">
-        <v>225.8500920267603</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V18" t="n">
         <v>232.8005871494253</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2010,22 +2010,22 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>75.94010346030288</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>151.8841590207553</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I19" t="n">
-        <v>120.4661307412137</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>11.1121291085505</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>124.9860859526906</v>
+        <v>91.57283072455644</v>
       </c>
       <c r="S19" t="n">
-        <v>203.7430225216617</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2061,7 +2061,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>167.5797748098271</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>412.7093048191902</v>
+        <v>412.9169039459368</v>
       </c>
       <c r="H20" t="n">
-        <v>312.9148095184212</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>103.2016800397945</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2174,13 +2174,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
-        <v>135.9559083391491</v>
+        <v>136.0669836643703</v>
       </c>
       <c r="H21" t="n">
-        <v>98.83406427779749</v>
+        <v>99.90681807664345</v>
       </c>
       <c r="I21" t="n">
-        <v>41.6215044791231</v>
+        <v>45.44580843958667</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,16 +2207,16 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>14.00436698854561</v>
+        <v>20.90078060183509</v>
       </c>
       <c r="S21" t="n">
-        <v>145.9089457972574</v>
+        <v>147.9721212459916</v>
       </c>
       <c r="T21" t="n">
-        <v>194.5716913732756</v>
+        <v>195.0194028815133</v>
       </c>
       <c r="U21" t="n">
-        <v>225.8500920267603</v>
+        <v>225.8573996139459</v>
       </c>
       <c r="V21" t="n">
         <v>232.8005871494253</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H22" t="n">
-        <v>151.8841590207553</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>120.4661307412137</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>122.7571290736762</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>203.7430225216617</v>
+        <v>145.8718339342033</v>
       </c>
       <c r="T22" t="n">
-        <v>222.9750205747625</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2338,7 +2338,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2417,7 +2417,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2526,7 +2526,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002187</v>
+        <v>115.5269768002178</v>
       </c>
       <c r="T25" t="n">
         <v>221.5475610583892</v>
@@ -2575,7 +2575,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2654,7 +2654,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,10 +2712,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>16.56305557306962</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
@@ -2724,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H28" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>108.3380852219932</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -2769,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2949,22 +2949,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>54.97117385624344</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>43.38343087627729</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3000,22 +3000,22 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H32" t="n">
         <v>305.2872491113177</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3237,22 +3237,22 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>139.1537278750038</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>174.3062600431768</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3331,7 +3331,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3423,22 +3423,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>115.5269768002176</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>61.83398511660721</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3480,19 +3480,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051975</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>118.4898845065121</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>57.64843562452468</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
-        <v>208.4827883385019</v>
+        <v>208.482788338502</v>
       </c>
       <c r="U41" t="n">
         <v>251.078595249801</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>75.43458761174553</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5475610583892</v>
+        <v>188.4590648403943</v>
       </c>
       <c r="U43" t="n">
         <v>286.2373523985773</v>
@@ -3960,13 +3960,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,7 +3979,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D44" t="n">
         <v>354.683041620683</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>132.9503648051984</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T44" t="n">
         <v>208.4827883385019</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>155.8385935972305</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>122.65197883716</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,43 +4306,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1546.944160717209</v>
+        <v>1275.883734065348</v>
       </c>
       <c r="C2" t="n">
-        <v>1177.981643776797</v>
+        <v>906.9212171249362</v>
       </c>
       <c r="D2" t="n">
-        <v>1177.981643776797</v>
+        <v>906.9212171249362</v>
       </c>
       <c r="E2" t="n">
-        <v>792.1933911785532</v>
+        <v>906.9212171249362</v>
       </c>
       <c r="F2" t="n">
-        <v>381.2074863889456</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>2697.149091018222</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="X2" t="n">
-        <v>2323.683332757143</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="Y2" t="n">
-        <v>1933.544000781331</v>
+        <v>1662.48357412947</v>
       </c>
     </row>
     <row r="3">
@@ -4400,25 +4400,25 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>235.9284171545819</v>
+        <v>397.6292392479589</v>
       </c>
       <c r="C4" t="n">
-        <v>235.9284171545819</v>
+        <v>397.6292392479589</v>
       </c>
       <c r="D4" t="n">
-        <v>235.9284171545819</v>
+        <v>247.5125998356232</v>
       </c>
       <c r="E4" t="n">
-        <v>235.9284171545819</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="F4" t="n">
-        <v>235.9284171545819</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="G4" t="n">
-        <v>235.9284171545819</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>550.5654064942401</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>336.2769833124028</v>
+        <v>624.9374265793572</v>
       </c>
       <c r="T4" t="n">
-        <v>235.9284171545819</v>
+        <v>397.6292392479589</v>
       </c>
       <c r="U4" t="n">
-        <v>235.9284171545819</v>
+        <v>397.6292392479589</v>
       </c>
       <c r="V4" t="n">
-        <v>235.9284171545819</v>
+        <v>397.6292392479589</v>
       </c>
       <c r="W4" t="n">
-        <v>235.9284171545819</v>
+        <v>397.6292392479589</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9284171545819</v>
+        <v>397.6292392479589</v>
       </c>
       <c r="Y4" t="n">
-        <v>235.9284171545819</v>
+        <v>397.6292392479589</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2310.5492509541</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="C5" t="n">
-        <v>1941.586734013689</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="D5" t="n">
-        <v>1583.321035406938</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E5" t="n">
-        <v>1197.532782808694</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F5" t="n">
-        <v>786.5468780190865</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4579,7 +4579,7 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2694.940765125206</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2694.940765125206</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2694.940765125206</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2694.940765125206</v>
       </c>
       <c r="V5" t="n">
-        <v>2697.149091018222</v>
+        <v>2363.877877781635</v>
       </c>
       <c r="W5" t="n">
-        <v>2697.149091018222</v>
+        <v>2011.109222511521</v>
       </c>
       <c r="X5" t="n">
-        <v>2697.149091018222</v>
+        <v>1637.643464250441</v>
       </c>
       <c r="Y5" t="n">
-        <v>2697.149091018222</v>
+        <v>1637.643464250441</v>
       </c>
     </row>
     <row r="6">
@@ -4628,10 +4628,10 @@
         <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
         <v>359.3385232961342</v>
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>323.2572191628421</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C7" t="n">
-        <v>323.2572191628421</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>323.2572191628421</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>323.2572191628421</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F7" t="n">
-        <v>323.2572191628421</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>323.2572191628421</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>165.5088465953723</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>99.5995062532301</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
         <v>53.94298182036445</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>323.2572191628421</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>323.2572191628421</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>323.2572191628421</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>323.2572191628421</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>323.2572191628421</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y7" t="n">
-        <v>323.2572191628421</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1184.889762484419</v>
+        <v>1560.797780174034</v>
       </c>
       <c r="C8" t="n">
-        <v>1184.889762484419</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="D8" t="n">
-        <v>1184.889762484419</v>
+        <v>1191.835263233623</v>
       </c>
       <c r="E8" t="n">
-        <v>799.1015098861748</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F8" t="n">
         <v>799.1015098861748</v>
@@ -4807,10 +4807,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2672.126336406922</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2495.948848721092</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2495.948848721092</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2242.187063359183</v>
+        <v>2677.17152568104</v>
       </c>
       <c r="V8" t="n">
-        <v>1911.124176015613</v>
+        <v>2677.17152568104</v>
       </c>
       <c r="W8" t="n">
-        <v>1558.355520745499</v>
+        <v>2324.402870410926</v>
       </c>
       <c r="X8" t="n">
-        <v>1184.889762484419</v>
+        <v>1950.937112149846</v>
       </c>
       <c r="Y8" t="n">
-        <v>1184.889762484419</v>
+        <v>1560.797780174034</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4901,25 +4901,25 @@
         <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>167.3408003844962</v>
+        <v>713.5189870075369</v>
       </c>
       <c r="D10" t="n">
-        <v>167.3408003844962</v>
+        <v>563.4023475952011</v>
       </c>
       <c r="E10" t="n">
-        <v>167.3408003844962</v>
+        <v>415.489254012808</v>
       </c>
       <c r="F10" t="n">
-        <v>167.3408003844962</v>
+        <v>268.5993065148977</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3408003844962</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="H10" t="n">
-        <v>167.3408003844962</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="I10" t="n">
         <v>99.5995062532301</v>
@@ -4983,31 +4983,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>550.5654064942404</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>336.2769833124031</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.9054987607761</v>
+        <v>2079.095561704329</v>
       </c>
       <c r="C11" t="n">
-        <v>53.94298182036445</v>
+        <v>1710.133044763917</v>
       </c>
       <c r="D11" t="n">
-        <v>53.94298182036445</v>
+        <v>1351.867346157166</v>
       </c>
       <c r="E11" t="n">
-        <v>53.94298182036445</v>
+        <v>1351.867346157166</v>
       </c>
       <c r="F11" t="n">
-        <v>53.94298182036445</v>
+        <v>940.8814413675588</v>
       </c>
       <c r="G11" t="n">
-        <v>53.94298182036445</v>
+        <v>523.3519349621865</v>
       </c>
       <c r="H11" t="n">
-        <v>53.94298182036445</v>
+        <v>200.6050072468649</v>
       </c>
       <c r="I11" t="n">
-        <v>53.94298182036445</v>
+        <v>63.88244739399266</v>
       </c>
       <c r="J11" t="n">
-        <v>169.7108380533141</v>
+        <v>215.7775870444386</v>
       </c>
       <c r="K11" t="n">
-        <v>463.9616490733129</v>
+        <v>564.1738308751517</v>
       </c>
       <c r="L11" t="n">
-        <v>881.2824271224077</v>
+        <v>1048.66680619262</v>
       </c>
       <c r="M11" t="n">
-        <v>1362.238747280443</v>
+        <v>1604.365138508507</v>
       </c>
       <c r="N11" t="n">
-        <v>1836.345445977175</v>
+        <v>2154.423253260172</v>
       </c>
       <c r="O11" t="n">
-        <v>2238.843319642689</v>
+        <v>2628.639895377766</v>
       </c>
       <c r="P11" t="n">
-        <v>2544.691559791252</v>
+        <v>2995.698445127828</v>
       </c>
       <c r="Q11" t="n">
-        <v>2697.149091018222</v>
+        <v>3194.122369699633</v>
       </c>
       <c r="R11" t="n">
-        <v>2697.149091018222</v>
+        <v>3194.122369699633</v>
       </c>
       <c r="S11" t="n">
-        <v>2697.149091018222</v>
+        <v>3194.122369699633</v>
       </c>
       <c r="T11" t="n">
-        <v>2510.703757037383</v>
+        <v>2977.388858347866</v>
       </c>
       <c r="U11" t="n">
-        <v>2256.941971675474</v>
+        <v>2723.661817121673</v>
       </c>
       <c r="V11" t="n">
-        <v>1925.879084331904</v>
+        <v>2392.598929778102</v>
       </c>
       <c r="W11" t="n">
-        <v>1573.11042906179</v>
+        <v>2392.598929778102</v>
       </c>
       <c r="X11" t="n">
-        <v>1199.64467080071</v>
+        <v>2392.598929778102</v>
       </c>
       <c r="Y11" t="n">
-        <v>809.505338824898</v>
+        <v>2392.598929778102</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>988.4979752170833</v>
+        <v>987.960322082656</v>
       </c>
       <c r="C12" t="n">
-        <v>814.0449459359563</v>
+        <v>813.507292801529</v>
       </c>
       <c r="D12" t="n">
-        <v>665.1105362747051</v>
+        <v>664.5728831402778</v>
       </c>
       <c r="E12" t="n">
-        <v>505.8730812692495</v>
+        <v>505.3354281348223</v>
       </c>
       <c r="F12" t="n">
-        <v>359.3385232961344</v>
+        <v>358.8008701617073</v>
       </c>
       <c r="G12" t="n">
-        <v>221.4284102424006</v>
+        <v>221.1231290014983</v>
       </c>
       <c r="H12" t="n">
-        <v>115.9856282673424</v>
+        <v>117.924570313905</v>
       </c>
       <c r="I12" t="n">
-        <v>53.94298182036445</v>
+        <v>63.88244739399266</v>
       </c>
       <c r="J12" t="n">
-        <v>129.2001442204943</v>
+        <v>160.6567723009148</v>
       </c>
       <c r="K12" t="n">
-        <v>384.4474646615928</v>
+        <v>452.6803506693414</v>
       </c>
       <c r="L12" t="n">
-        <v>789.0633827572647</v>
+        <v>906.7464860204218</v>
       </c>
       <c r="M12" t="n">
-        <v>1313.210296315296</v>
+        <v>1488.59947069945</v>
       </c>
       <c r="N12" t="n">
-        <v>1866.936832414847</v>
+        <v>1802.858354813962</v>
       </c>
       <c r="O12" t="n">
-        <v>2307.072755435191</v>
+        <v>2297.18124754351</v>
       </c>
       <c r="P12" t="n">
-        <v>2525.076107152626</v>
+        <v>2676.915881557612</v>
       </c>
       <c r="Q12" t="n">
-        <v>2697.149091018223</v>
+        <v>2676.915881557612</v>
       </c>
       <c r="R12" t="n">
-        <v>2646.935720430048</v>
+        <v>2641.129951867416</v>
       </c>
       <c r="S12" t="n">
-        <v>2488.762748073964</v>
+        <v>2487.273185516061</v>
       </c>
       <c r="T12" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.331259437741</v>
       </c>
       <c r="U12" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.176923033155</v>
       </c>
       <c r="V12" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.024814801412</v>
       </c>
       <c r="W12" t="n">
-        <v>1572.325111207638</v>
+        <v>1571.787458073211</v>
       </c>
       <c r="X12" t="n">
-        <v>1364.473611002105</v>
+        <v>1363.935957867678</v>
       </c>
       <c r="Y12" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.175659102724</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>728.1289842064344</v>
+        <v>379.7085778198099</v>
       </c>
       <c r="C13" t="n">
-        <v>728.1289842064344</v>
+        <v>210.772394891903</v>
       </c>
       <c r="D13" t="n">
-        <v>728.1289842064344</v>
+        <v>210.772394891903</v>
       </c>
       <c r="E13" t="n">
-        <v>709.5665374816297</v>
+        <v>210.772394891903</v>
       </c>
       <c r="F13" t="n">
-        <v>562.6765899837193</v>
+        <v>63.88244739399266</v>
       </c>
       <c r="G13" t="n">
-        <v>393.6767897220517</v>
+        <v>63.88244739399266</v>
       </c>
       <c r="H13" t="n">
-        <v>235.9284171545818</v>
+        <v>63.88244739399266</v>
       </c>
       <c r="I13" t="n">
-        <v>99.5995062532301</v>
+        <v>63.88244739399266</v>
       </c>
       <c r="J13" t="n">
-        <v>53.94298182036445</v>
+        <v>63.88244739399266</v>
       </c>
       <c r="K13" t="n">
-        <v>110.2451748866326</v>
+        <v>142.3679338555485</v>
       </c>
       <c r="L13" t="n">
-        <v>237.8190324477911</v>
+        <v>298.3287695220697</v>
       </c>
       <c r="M13" t="n">
-        <v>382.716901165821</v>
+        <v>473.1567265041799</v>
       </c>
       <c r="N13" t="n">
-        <v>529.6040388502502</v>
+        <v>649.2622818508061</v>
       </c>
       <c r="O13" t="n">
-        <v>649.2617893594903</v>
+        <v>795.9079702090238</v>
       </c>
       <c r="P13" t="n">
-        <v>728.1289842064344</v>
+        <v>897.8680081961016</v>
       </c>
       <c r="Q13" t="n">
-        <v>728.1289842064344</v>
+        <v>897.8680081961016</v>
       </c>
       <c r="R13" t="n">
-        <v>728.1289842064344</v>
+        <v>889.9183270003007</v>
       </c>
       <c r="S13" t="n">
-        <v>728.1289842064344</v>
+        <v>889.9183270003007</v>
       </c>
       <c r="T13" t="n">
-        <v>728.1289842064344</v>
+        <v>889.9183270003007</v>
       </c>
       <c r="U13" t="n">
-        <v>728.1289842064344</v>
+        <v>889.9183270003007</v>
       </c>
       <c r="V13" t="n">
-        <v>728.1289842064344</v>
+        <v>889.9183270003007</v>
       </c>
       <c r="W13" t="n">
-        <v>728.1289842064344</v>
+        <v>600.50115696334</v>
       </c>
       <c r="X13" t="n">
-        <v>728.1289842064344</v>
+        <v>600.50115696334</v>
       </c>
       <c r="Y13" t="n">
-        <v>728.1289842064344</v>
+        <v>379.7085778198099</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2035.910253889014</v>
+        <v>2015.081949825207</v>
       </c>
       <c r="C14" t="n">
-        <v>1666.947736948603</v>
+        <v>1646.119432884795</v>
       </c>
       <c r="D14" t="n">
-        <v>1308.682038341852</v>
+        <v>1287.853734278045</v>
       </c>
       <c r="E14" t="n">
-        <v>922.8937857436081</v>
+        <v>902.0654816798005</v>
       </c>
       <c r="F14" t="n">
-        <v>511.9078809540005</v>
+        <v>491.079576890193</v>
       </c>
       <c r="G14" t="n">
-        <v>511.9078809540005</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H14" t="n">
-        <v>193.6847657265099</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I14" t="n">
-        <v>73.9917951266206</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J14" t="n">
-        <v>262.6316941403568</v>
+        <v>262.6316941403561</v>
       </c>
       <c r="K14" t="n">
-        <v>666.098807160402</v>
+        <v>666.0988071604011</v>
       </c>
       <c r="L14" t="n">
-        <v>1218.912065406601</v>
+        <v>1218.912065406599</v>
       </c>
       <c r="M14" t="n">
-        <v>1850.629876389912</v>
+        <v>1850.62987638991</v>
       </c>
       <c r="N14" t="n">
-        <v>2477.937544449758</v>
+        <v>2477.937544449755</v>
       </c>
       <c r="O14" t="n">
-        <v>3025.098749216835</v>
+        <v>3025.098749216831</v>
       </c>
       <c r="P14" t="n">
-        <v>3454.41379555613</v>
+        <v>3454.413795556125</v>
       </c>
       <c r="Q14" t="n">
-        <v>3699.58975633103</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="R14" t="n">
-        <v>3699.58975633103</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="S14" t="n">
-        <v>3543.374718827858</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="T14" t="n">
-        <v>3543.374718827858</v>
+        <v>3699.589756331025</v>
       </c>
       <c r="U14" t="n">
-        <v>3289.683015573009</v>
+        <v>3518.055535396335</v>
       </c>
       <c r="V14" t="n">
-        <v>2958.620128229438</v>
+        <v>3518.055535396335</v>
       </c>
       <c r="W14" t="n">
-        <v>2795.975852214216</v>
+        <v>3165.28688012622</v>
       </c>
       <c r="X14" t="n">
-        <v>2422.510093953136</v>
+        <v>2791.82112186514</v>
       </c>
       <c r="Y14" t="n">
-        <v>2422.510093953136</v>
+        <v>2401.681789889329</v>
       </c>
     </row>
     <row r="15">
@@ -5345,7 +5345,7 @@
         <v>504.7885856053927</v>
       </c>
       <c r="F15" t="n">
-        <v>358.2540276322776</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G15" t="n">
         <v>220.8126299914996</v>
@@ -5354,31 +5354,31 @@
         <v>119.8966521363041</v>
       </c>
       <c r="I15" t="n">
-        <v>73.9917951266206</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J15" t="n">
-        <v>73.9917951266206</v>
+        <v>192.6510469835158</v>
       </c>
       <c r="K15" t="n">
-        <v>157.3616934996477</v>
+        <v>522.0794512893251</v>
       </c>
       <c r="L15" t="n">
-        <v>661.723233365766</v>
+        <v>1002.94122423782</v>
       </c>
       <c r="M15" t="n">
-        <v>1302.26858283287</v>
+        <v>1643.486573704924</v>
       </c>
       <c r="N15" t="n">
-        <v>1975.474275085653</v>
+        <v>1842.143315357588</v>
       </c>
       <c r="O15" t="n">
-        <v>2524.910283838375</v>
+        <v>2001.655628026347</v>
       </c>
       <c r="P15" t="n">
-        <v>2633.599911365674</v>
+        <v>2425.623396507183</v>
       </c>
       <c r="Q15" t="n">
-        <v>2656.33685256765</v>
+        <v>2656.336852567651</v>
       </c>
       <c r="R15" t="n">
         <v>2635.224952969837</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>73.9917951266206</v>
+        <v>370.9983820368666</v>
       </c>
       <c r="C16" t="n">
-        <v>73.9917951266206</v>
+        <v>370.9983820368666</v>
       </c>
       <c r="D16" t="n">
-        <v>73.9917951266206</v>
+        <v>220.8817426245309</v>
       </c>
       <c r="E16" t="n">
-        <v>73.9917951266206</v>
+        <v>220.8817426245309</v>
       </c>
       <c r="F16" t="n">
-        <v>73.9917951266206</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="G16" t="n">
-        <v>73.9917951266206</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="H16" t="n">
-        <v>73.9917951266206</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="I16" t="n">
-        <v>73.9917951266206</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="J16" t="n">
-        <v>73.9917951266206</v>
+        <v>73.9917951266205</v>
       </c>
       <c r="K16" t="n">
-        <v>175.0397247222303</v>
+        <v>175.0397247222299</v>
       </c>
       <c r="L16" t="n">
-        <v>359.8727196230485</v>
+        <v>359.8727196230478</v>
       </c>
       <c r="M16" t="n">
-        <v>565.1423203422863</v>
+        <v>565.1423203422853</v>
       </c>
       <c r="N16" t="n">
-        <v>770.9656851783905</v>
+        <v>770.9656851783891</v>
       </c>
       <c r="O16" t="n">
-        <v>945.0605805669892</v>
+        <v>945.0605805669875</v>
       </c>
       <c r="P16" t="n">
-        <v>1070.508157165605</v>
+        <v>1070.508157165603</v>
       </c>
       <c r="Q16" t="n">
-        <v>1073.926476585965</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="R16" t="n">
-        <v>1073.926476585965</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="S16" t="n">
-        <v>1073.926476585965</v>
+        <v>1073.926476585963</v>
       </c>
       <c r="T16" t="n">
-        <v>848.2972798983295</v>
+        <v>848.2972798983274</v>
       </c>
       <c r="U16" t="n">
-        <v>559.1451034760094</v>
+        <v>848.2972798983274</v>
       </c>
       <c r="V16" t="n">
-        <v>304.4606152701225</v>
+        <v>848.2972798983274</v>
       </c>
       <c r="W16" t="n">
-        <v>73.9917951266206</v>
+        <v>558.8801098613667</v>
       </c>
       <c r="X16" t="n">
-        <v>73.9917951266206</v>
+        <v>558.8801098613667</v>
       </c>
       <c r="Y16" t="n">
-        <v>73.9917951266206</v>
+        <v>552.6468468671063</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2336.010414728833</v>
+        <v>2015.081949825207</v>
       </c>
       <c r="C17" t="n">
-        <v>1967.047897788421</v>
+        <v>1646.119432884796</v>
       </c>
       <c r="D17" t="n">
-        <v>1608.78219918167</v>
+        <v>1287.853734278045</v>
       </c>
       <c r="E17" t="n">
-        <v>1222.993946583426</v>
+        <v>902.0654816798008</v>
       </c>
       <c r="F17" t="n">
-        <v>812.0080417938184</v>
+        <v>491.0795768901932</v>
       </c>
       <c r="G17" t="n">
-        <v>395.1299561178688</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="H17" t="n">
-        <v>79.05439094774631</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="I17" t="n">
-        <v>79.05439094774631</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J17" t="n">
-        <v>285.1378091813608</v>
+        <v>262.631694140357</v>
       </c>
       <c r="K17" t="n">
-        <v>714.748235746119</v>
+        <v>666.0988071604024</v>
       </c>
       <c r="L17" t="n">
-        <v>1299.994586194452</v>
+        <v>1218.912065406602</v>
       </c>
       <c r="M17" t="n">
-        <v>1967.800461440477</v>
+        <v>1850.629876389914</v>
       </c>
       <c r="N17" t="n">
-        <v>2631.780136371717</v>
+        <v>2477.93754444976</v>
       </c>
       <c r="O17" t="n">
-        <v>3213.569677331766</v>
+        <v>3025.098749216837</v>
       </c>
       <c r="P17" t="n">
-        <v>3672.439207456889</v>
+        <v>3454.413795556132</v>
       </c>
       <c r="Q17" t="n">
-        <v>3939.80935472827</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="R17" t="n">
-        <v>3952.719547387315</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="S17" t="n">
-        <v>3952.719547387315</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="T17" t="n">
-        <v>3952.719547387315</v>
+        <v>3484.789894598744</v>
       </c>
       <c r="U17" t="n">
-        <v>3952.719547387315</v>
+        <v>3231.098191343895</v>
       </c>
       <c r="V17" t="n">
-        <v>3621.656660043745</v>
+        <v>2900.035304000324</v>
       </c>
       <c r="W17" t="n">
-        <v>3268.88800477363</v>
+        <v>2778.687040062099</v>
       </c>
       <c r="X17" t="n">
-        <v>2895.42224651255</v>
+        <v>2405.221281801019</v>
       </c>
       <c r="Y17" t="n">
-        <v>2505.282914536739</v>
+        <v>2015.081949825207</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>987.4173550869474</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C18" t="n">
-        <v>812.9643258058204</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D18" t="n">
-        <v>664.0299161445691</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E18" t="n">
-        <v>504.7924611391136</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F18" t="n">
-        <v>358.2579031659986</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G18" t="n">
-        <v>220.9287028234237</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H18" t="n">
-        <v>121.0963146640323</v>
+        <v>119.8966521363042</v>
       </c>
       <c r="I18" t="n">
-        <v>79.05439094774631</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J18" t="n">
-        <v>208.1028833519314</v>
+        <v>192.6510469835163</v>
       </c>
       <c r="K18" t="n">
-        <v>555.2881545269468</v>
+        <v>522.0794512893262</v>
       </c>
       <c r="L18" t="n">
-        <v>1083.525993232189</v>
+        <v>1026.440991155445</v>
       </c>
       <c r="M18" t="n">
-        <v>1290.88584415979</v>
+        <v>1253.562877620958</v>
       </c>
       <c r="N18" t="n">
-        <v>1518.142538238699</v>
+        <v>1452.219619273623</v>
       </c>
       <c r="O18" t="n">
-        <v>2093.741916007197</v>
+        <v>2001.655628026346</v>
       </c>
       <c r="P18" t="n">
-        <v>2538.70809472655</v>
+        <v>2425.623396507182</v>
       </c>
       <c r="Q18" t="n">
-        <v>2646.831022891829</v>
+        <v>2656.33685256765</v>
       </c>
       <c r="R18" t="n">
-        <v>2632.685197650874</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S18" t="n">
-        <v>2485.302424118291</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T18" t="n">
-        <v>2288.765362125083</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U18" t="n">
-        <v>2060.633956037446</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V18" t="n">
-        <v>1825.481847805704</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W18" t="n">
-        <v>1571.244491077502</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X18" t="n">
-        <v>1363.392990871969</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y18" t="n">
-        <v>1155.632692107015</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>611.0234247148678</v>
+        <v>545.0957147371556</v>
       </c>
       <c r="C19" t="n">
-        <v>442.0872417869609</v>
+        <v>376.1595318092487</v>
       </c>
       <c r="D19" t="n">
-        <v>442.0872417869609</v>
+        <v>376.1595318092487</v>
       </c>
       <c r="E19" t="n">
-        <v>442.0872417869609</v>
+        <v>228.2464382268556</v>
       </c>
       <c r="F19" t="n">
-        <v>442.0872417869609</v>
+        <v>228.2464382268556</v>
       </c>
       <c r="G19" t="n">
-        <v>365.3800665745338</v>
+        <v>228.2464382268556</v>
       </c>
       <c r="H19" t="n">
-        <v>211.9617241293263</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="I19" t="n">
-        <v>90.27876378466601</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J19" t="n">
-        <v>79.05439094774631</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="K19" t="n">
-        <v>190.8131924411721</v>
+        <v>175.0397247222305</v>
       </c>
       <c r="L19" t="n">
-        <v>389.3524157470674</v>
+        <v>359.8727196230489</v>
       </c>
       <c r="M19" t="n">
-        <v>609.0733125644306</v>
+        <v>565.1423203422868</v>
       </c>
       <c r="N19" t="n">
-        <v>829.0043539776817</v>
+        <v>770.9656851783911</v>
       </c>
       <c r="O19" t="n">
-        <v>1016.129972078897</v>
+        <v>945.06058056699</v>
       </c>
       <c r="P19" t="n">
-        <v>1152.727583085067</v>
+        <v>1070.508157165606</v>
       </c>
       <c r="Q19" t="n">
-        <v>1163.865608377946</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="R19" t="n">
-        <v>1037.617036708561</v>
+        <v>981.4286677732822</v>
       </c>
       <c r="S19" t="n">
-        <v>831.8160038583979</v>
+        <v>981.4286677732822</v>
       </c>
       <c r="T19" t="n">
-        <v>831.8160038583979</v>
+        <v>981.4286677732822</v>
       </c>
       <c r="U19" t="n">
-        <v>831.8160038583979</v>
+        <v>981.4286677732822</v>
       </c>
       <c r="V19" t="n">
-        <v>831.8160038583979</v>
+        <v>726.7441795673953</v>
       </c>
       <c r="W19" t="n">
-        <v>831.8160038583979</v>
+        <v>726.7441795673953</v>
       </c>
       <c r="X19" t="n">
-        <v>831.8160038583979</v>
+        <v>726.7441795673953</v>
       </c>
       <c r="Y19" t="n">
-        <v>611.0234247148678</v>
+        <v>726.7441795673953</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2336.010414728833</v>
+        <v>2134.774920425096</v>
       </c>
       <c r="C20" t="n">
-        <v>1967.047897788421</v>
+        <v>1765.812403484685</v>
       </c>
       <c r="D20" t="n">
-        <v>1608.78219918167</v>
+        <v>1407.546704877934</v>
       </c>
       <c r="E20" t="n">
-        <v>1222.993946583426</v>
+        <v>1021.75845227969</v>
       </c>
       <c r="F20" t="n">
-        <v>812.0080417938184</v>
+        <v>610.7725474900824</v>
       </c>
       <c r="G20" t="n">
-        <v>395.1299561178688</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="H20" t="n">
-        <v>79.05439094774631</v>
+        <v>193.6847657265099</v>
       </c>
       <c r="I20" t="n">
-        <v>79.05439094774631</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J20" t="n">
-        <v>285.1378091813608</v>
+        <v>262.631694140357</v>
       </c>
       <c r="K20" t="n">
-        <v>714.748235746119</v>
+        <v>666.0988071604024</v>
       </c>
       <c r="L20" t="n">
-        <v>1299.994586194452</v>
+        <v>1218.912065406602</v>
       </c>
       <c r="M20" t="n">
-        <v>1967.800461440477</v>
+        <v>1850.629876389914</v>
       </c>
       <c r="N20" t="n">
-        <v>2631.780136371717</v>
+        <v>2477.93754444976</v>
       </c>
       <c r="O20" t="n">
-        <v>3213.569677331766</v>
+        <v>3025.098749216837</v>
       </c>
       <c r="P20" t="n">
-        <v>3672.439207456889</v>
+        <v>3454.413795556132</v>
       </c>
       <c r="Q20" t="n">
-        <v>3939.80935472827</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="R20" t="n">
-        <v>3952.719547387315</v>
+        <v>3699.589756331033</v>
       </c>
       <c r="S20" t="n">
-        <v>3952.719547387315</v>
+        <v>3595.345635078715</v>
       </c>
       <c r="T20" t="n">
-        <v>3952.719547387315</v>
+        <v>3595.345635078715</v>
       </c>
       <c r="U20" t="n">
-        <v>3952.719547387315</v>
+        <v>3595.345635078715</v>
       </c>
       <c r="V20" t="n">
-        <v>3621.656660043745</v>
+        <v>3264.282747735144</v>
       </c>
       <c r="W20" t="n">
-        <v>3268.88800477363</v>
+        <v>2911.51409246503</v>
       </c>
       <c r="X20" t="n">
-        <v>2895.42224651255</v>
+        <v>2911.51409246503</v>
       </c>
       <c r="Y20" t="n">
-        <v>2505.282914536739</v>
+        <v>2521.374760489218</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>987.4173550869474</v>
+        <v>987.4134795532265</v>
       </c>
       <c r="C21" t="n">
-        <v>812.9643258058204</v>
+        <v>812.9604502720995</v>
       </c>
       <c r="D21" t="n">
-        <v>664.0299161445691</v>
+        <v>664.0260406108482</v>
       </c>
       <c r="E21" t="n">
-        <v>504.7924611391136</v>
+        <v>504.7885856053927</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2579031659986</v>
+        <v>358.2540276322777</v>
       </c>
       <c r="G21" t="n">
-        <v>220.9287028234237</v>
+        <v>220.8126299914996</v>
       </c>
       <c r="H21" t="n">
-        <v>121.0963146640323</v>
+        <v>119.8966521363042</v>
       </c>
       <c r="I21" t="n">
-        <v>79.05439094774631</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J21" t="n">
-        <v>208.1028833519314</v>
+        <v>192.6510469835163</v>
       </c>
       <c r="K21" t="n">
-        <v>293.467569884494</v>
+        <v>522.0794512893262</v>
       </c>
       <c r="L21" t="n">
-        <v>534.5562762847319</v>
+        <v>1026.440991155445</v>
       </c>
       <c r="M21" t="n">
-        <v>1202.964140324833</v>
+        <v>1253.562877620958</v>
       </c>
       <c r="N21" t="n">
-        <v>1904.769785003859</v>
+        <v>1452.219619273623</v>
       </c>
       <c r="O21" t="n">
-        <v>2480.369162772357</v>
+        <v>2001.655628026346</v>
       </c>
       <c r="P21" t="n">
-        <v>2610.057200538173</v>
+        <v>2425.623396507182</v>
       </c>
       <c r="Q21" t="n">
-        <v>2646.831022891829</v>
+        <v>2656.33685256765</v>
       </c>
       <c r="R21" t="n">
-        <v>2632.685197650874</v>
+        <v>2635.224952969837</v>
       </c>
       <c r="S21" t="n">
-        <v>2485.302424118291</v>
+        <v>2485.758163832472</v>
       </c>
       <c r="T21" t="n">
-        <v>2288.765362125083</v>
+        <v>2288.76886799256</v>
       </c>
       <c r="U21" t="n">
-        <v>2060.633956037446</v>
+        <v>2060.630080503725</v>
       </c>
       <c r="V21" t="n">
-        <v>1825.481847805704</v>
+        <v>1825.477972271983</v>
       </c>
       <c r="W21" t="n">
-        <v>1571.244491077502</v>
+        <v>1571.240615543781</v>
       </c>
       <c r="X21" t="n">
-        <v>1363.392990871969</v>
+        <v>1363.389115338248</v>
       </c>
       <c r="Y21" t="n">
-        <v>1155.632692107015</v>
+        <v>1155.628816573294</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>354.155693737614</v>
+        <v>411.5348230591442</v>
       </c>
       <c r="C22" t="n">
-        <v>354.155693737614</v>
+        <v>242.5986401312373</v>
       </c>
       <c r="D22" t="n">
-        <v>354.155693737614</v>
+        <v>242.5986401312373</v>
       </c>
       <c r="E22" t="n">
-        <v>354.155693737614</v>
+        <v>242.5986401312373</v>
       </c>
       <c r="F22" t="n">
-        <v>354.155693737614</v>
+        <v>242.5986401312373</v>
       </c>
       <c r="G22" t="n">
-        <v>354.155693737614</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="H22" t="n">
-        <v>200.7373512924066</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="I22" t="n">
-        <v>79.05439094774631</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="J22" t="n">
-        <v>79.05439094774631</v>
+        <v>73.99179512662066</v>
       </c>
       <c r="K22" t="n">
-        <v>190.8131924411721</v>
+        <v>175.0397247222305</v>
       </c>
       <c r="L22" t="n">
-        <v>389.3524157470674</v>
+        <v>359.8727196230489</v>
       </c>
       <c r="M22" t="n">
-        <v>609.0733125644306</v>
+        <v>565.1423203422868</v>
       </c>
       <c r="N22" t="n">
-        <v>829.0043539776817</v>
+        <v>770.9656851783911</v>
       </c>
       <c r="O22" t="n">
-        <v>1016.129972078897</v>
+        <v>945.06058056699</v>
       </c>
       <c r="P22" t="n">
-        <v>1152.727583085067</v>
+        <v>1070.508157165606</v>
       </c>
       <c r="Q22" t="n">
-        <v>1163.865608377946</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="R22" t="n">
-        <v>1039.868508303525</v>
+        <v>1073.926476585965</v>
       </c>
       <c r="S22" t="n">
-        <v>834.067475453362</v>
+        <v>926.5811897837399</v>
       </c>
       <c r="T22" t="n">
-        <v>608.8401819435009</v>
+        <v>700.9519930961048</v>
       </c>
       <c r="U22" t="n">
-        <v>608.8401819435009</v>
+        <v>700.9519930961048</v>
       </c>
       <c r="V22" t="n">
-        <v>354.155693737614</v>
+        <v>700.9519930961048</v>
       </c>
       <c r="W22" t="n">
-        <v>354.155693737614</v>
+        <v>411.5348230591442</v>
       </c>
       <c r="X22" t="n">
-        <v>354.155693737614</v>
+        <v>411.5348230591442</v>
       </c>
       <c r="Y22" t="n">
-        <v>354.155693737614</v>
+        <v>411.5348230591442</v>
       </c>
     </row>
     <row r="23">
@@ -5971,34 +5971,34 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L23" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N23" t="n">
         <v>3183.709822619127</v>
@@ -6007,7 +6007,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6068,25 +6068,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>287.7778528277033</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L24" t="n">
-        <v>534.5429807341674</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M24" t="n">
-        <v>841.863114014129</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N24" t="n">
-        <v>1646.27469227828</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O24" t="n">
-        <v>1925.814757496977</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P24" t="n">
-        <v>2446.115379232724</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
-        <v>3471.538086380584</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>3621.723490625196</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L25" t="n">
-        <v>3869.435535636325</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M25" t="n">
-        <v>4141.002278403508</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N25" t="n">
-        <v>4411.546387431056</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O25" t="n">
-        <v>4645.421365436453</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P25" t="n">
-        <v>4822.021130042136</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>4860.854573014292</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S25" t="n">
-        <v>4744.160657054475</v>
+        <v>1382.222354598086</v>
       </c>
       <c r="T25" t="n">
-        <v>4520.375241843982</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U25" t="n">
-        <v>4231.24660305754</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V25" t="n">
-        <v>3976.562114851653</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W25" t="n">
-        <v>3687.144944814692</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="Y25" t="n">
-        <v>3459.155393916675</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
     <row r="26">
@@ -6202,43 +6202,43 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805467</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6262,16 +6262,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L27" t="n">
-        <v>534.5429807341674</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M27" t="n">
-        <v>1247.466478653857</v>
+        <v>966.6932390011336</v>
       </c>
       <c r="N27" t="n">
-        <v>2051.878056918008</v>
+        <v>1296.555866665166</v>
       </c>
       <c r="O27" t="n">
-        <v>2331.418122136705</v>
+        <v>1808.163466324677</v>
       </c>
       <c r="P27" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>988.9950526279305</v>
+        <v>732.358329063101</v>
       </c>
       <c r="C28" t="n">
-        <v>972.2646934632137</v>
+        <v>563.4221461351941</v>
       </c>
       <c r="D28" t="n">
-        <v>822.1480540508779</v>
+        <v>413.3055067228584</v>
       </c>
       <c r="E28" t="n">
-        <v>674.2349604684848</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F28" t="n">
-        <v>527.3450129705744</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G28" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H28" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6408,28 +6408,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1389.483861242758</v>
       </c>
       <c r="S28" t="n">
-        <v>1498.916270557902</v>
+        <v>1389.483861242758</v>
       </c>
       <c r="T28" t="n">
-        <v>1498.916270557902</v>
+        <v>1389.483861242758</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.787631771461</v>
+        <v>1389.483861242758</v>
       </c>
       <c r="V28" t="n">
-        <v>1209.787631771461</v>
+        <v>1134.799373036871</v>
       </c>
       <c r="W28" t="n">
-        <v>1209.787631771461</v>
+        <v>1134.799373036871</v>
       </c>
       <c r="X28" t="n">
-        <v>1209.787631771461</v>
+        <v>1134.799373036871</v>
       </c>
       <c r="Y28" t="n">
-        <v>988.9950526279305</v>
+        <v>914.0067938933407</v>
       </c>
     </row>
     <row r="29">
@@ -6454,13 +6454,13 @@
         <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805465</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J29" t="n">
         <v>365.8813331823785</v>
@@ -6545,19 +6545,19 @@
         <v>138.7081686256434</v>
       </c>
       <c r="K30" t="n">
-        <v>410.874530133163</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L30" t="n">
-        <v>1024.771599890052</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M30" t="n">
-        <v>1332.091733170013</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N30" t="n">
-        <v>1661.954360834046</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O30" t="n">
-        <v>2331.418122136705</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P30" t="n">
         <v>2536.440602918915</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>321.6797126268225</v>
+        <v>754.894602230607</v>
       </c>
       <c r="C31" t="n">
-        <v>152.7435296989156</v>
+        <v>585.9584193027001</v>
       </c>
       <c r="D31" t="n">
-        <v>152.7435296989156</v>
+        <v>435.8417798903644</v>
       </c>
       <c r="E31" t="n">
-        <v>97.21709146028584</v>
+        <v>287.9286863079712</v>
       </c>
       <c r="F31" t="n">
-        <v>97.21709146028584</v>
+        <v>141.0387388100609</v>
       </c>
       <c r="G31" t="n">
         <v>97.21709146028584</v>
@@ -6648,25 +6648,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S31" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T31" t="n">
-        <v>1275.130855347408</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="U31" t="n">
-        <v>986.0022165609664</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="V31" t="n">
-        <v>731.3177283550796</v>
+        <v>1044.311772267568</v>
       </c>
       <c r="W31" t="n">
-        <v>731.3177283550796</v>
+        <v>754.894602230607</v>
       </c>
       <c r="X31" t="n">
-        <v>503.3281774570622</v>
+        <v>754.894602230607</v>
       </c>
       <c r="Y31" t="n">
-        <v>503.3281774570622</v>
+        <v>754.894602230607</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G32" t="n">
         <v>488.193237080547</v>
@@ -6697,13 +6697,13 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6721,31 +6721,31 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6767,37 +6767,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J33" t="n">
         <v>138.7081686256434</v>
       </c>
       <c r="K33" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>891.4406401619858</v>
+        <v>709.4934589365143</v>
       </c>
       <c r="M33" t="n">
-        <v>1198.760773441947</v>
+        <v>1016.813592216476</v>
       </c>
       <c r="N33" t="n">
-        <v>1528.62340110598</v>
+        <v>1346.676219880509</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2016.139981183168</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1141.200876391121</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="C34" t="n">
-        <v>972.2646934632137</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D34" t="n">
-        <v>822.1480540508779</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E34" t="n">
-        <v>674.2349604684848</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F34" t="n">
-        <v>527.3450129705744</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G34" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H34" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
         <v>109.5997839241957</v>
@@ -6885,25 +6885,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S34" t="n">
-        <v>1498.916270557902</v>
+        <v>1298.996260473455</v>
       </c>
       <c r="T34" t="n">
-        <v>1498.916270557902</v>
+        <v>1158.436939387592</v>
       </c>
       <c r="U34" t="n">
-        <v>1498.916270557902</v>
+        <v>869.3083006011506</v>
       </c>
       <c r="V34" t="n">
-        <v>1498.916270557902</v>
+        <v>614.6238123952637</v>
       </c>
       <c r="W34" t="n">
-        <v>1322.84934122136</v>
+        <v>325.2066423583032</v>
       </c>
       <c r="X34" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="Y34" t="n">
-        <v>1322.84934122136</v>
+        <v>97.21709146028583</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6940,13 +6940,13 @@
         <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
         <v>3183.709822619127</v>
@@ -6955,7 +6955,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P35" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q35" t="n">
         <v>4801.62743720783</v>
@@ -6979,10 +6979,10 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7016,25 +7016,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>549.5984374701561</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>1163.495507227045</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1470.815640507006</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1800.678268171039</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2080.218333389736</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>644.700260475621</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C37" t="n">
-        <v>475.7640775477141</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D37" t="n">
-        <v>413.3055067228584</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F37" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G37" t="n">
         <v>97.21709146028584</v>
@@ -7128,19 +7128,19 @@
         <v>1275.130855347408</v>
       </c>
       <c r="U37" t="n">
-        <v>1275.130855347408</v>
+        <v>986.0022165609664</v>
       </c>
       <c r="V37" t="n">
-        <v>1275.130855347408</v>
+        <v>731.3177283550796</v>
       </c>
       <c r="W37" t="n">
-        <v>1275.130855347408</v>
+        <v>441.900558318119</v>
       </c>
       <c r="X37" t="n">
-        <v>1047.141304449391</v>
+        <v>213.9110074201016</v>
       </c>
       <c r="Y37" t="n">
-        <v>826.3487253058607</v>
+        <v>213.9110074201016</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
         <v>1315.304916405196</v>
@@ -7165,19 +7165,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7195,10 +7195,10 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
         <v>4726.561275231264</v>
@@ -7207,19 +7207,19 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="39">
@@ -7241,28 +7241,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G39" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H39" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K39" t="n">
-        <v>412.6079778147081</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L39" t="n">
-        <v>659.3731057211721</v>
+        <v>1206.718781115524</v>
       </c>
       <c r="M39" t="n">
-        <v>1427.741252113633</v>
+        <v>1514.038914395485</v>
       </c>
       <c r="N39" t="n">
         <v>1843.901542059518</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3628.091576844583</v>
+        <v>216.9038434870658</v>
       </c>
       <c r="C40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="D40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="E40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="F40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="G40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="H40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="I40" t="n">
-        <v>3459.155393916677</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J40" t="n">
-        <v>3471.538086380586</v>
+        <v>109.5997839241957</v>
       </c>
       <c r="K40" t="n">
-        <v>3621.723490625198</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L40" t="n">
-        <v>3869.435535636327</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M40" t="n">
-        <v>4141.00227840351</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N40" t="n">
-        <v>4411.546387431057</v>
+        <v>1049.608084974667</v>
       </c>
       <c r="O40" t="n">
-        <v>4645.421365436454</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P40" t="n">
-        <v>4822.021130042137</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q40" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R40" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S40" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T40" t="n">
-        <v>4860.854573014293</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U40" t="n">
-        <v>4802.623829959218</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V40" t="n">
-        <v>4547.939341753331</v>
+        <v>955.1031435655738</v>
       </c>
       <c r="W40" t="n">
-        <v>4258.52217171637</v>
+        <v>665.6859735286132</v>
       </c>
       <c r="X40" t="n">
-        <v>4030.532620818353</v>
+        <v>437.6964226305959</v>
       </c>
       <c r="Y40" t="n">
-        <v>3809.740041674823</v>
+        <v>216.9038434870658</v>
       </c>
     </row>
     <row r="41">
@@ -7408,7 +7408,7 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I41" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J41" t="n">
         <v>365.8813331823786</v>
@@ -7435,7 +7435,7 @@
         <v>4801.627437207829</v>
       </c>
       <c r="R41" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
         <v>4726.561275231264</v>
@@ -7478,16 +7478,16 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F42" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G42" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H42" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I42" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
         <v>138.7081686256434</v>
@@ -7496,16 +7496,16 @@
         <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>534.5429807341673</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M42" t="n">
-        <v>1302.911127126629</v>
+        <v>1208.995055864553</v>
       </c>
       <c r="N42" t="n">
-        <v>2051.878056918008</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O42" t="n">
-        <v>2331.418122136705</v>
+        <v>2208.321444831246</v>
       </c>
       <c r="P42" t="n">
         <v>2536.440602918915</v>
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>434.3285960683721</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="C43" t="n">
-        <v>265.3924131404652</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F43" t="n">
-        <v>265.3924131404652</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I43" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J43" t="n">
         <v>109.5997839241957</v>
@@ -7599,22 +7599,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T43" t="n">
-        <v>1275.130855347408</v>
+        <v>1308.553578799928</v>
       </c>
       <c r="U43" t="n">
-        <v>986.0022165609664</v>
+        <v>1019.424940013486</v>
       </c>
       <c r="V43" t="n">
-        <v>731.3177283550796</v>
+        <v>764.7404518075996</v>
       </c>
       <c r="W43" t="n">
-        <v>731.3177283550796</v>
+        <v>475.3232817706389</v>
       </c>
       <c r="X43" t="n">
-        <v>731.3177283550796</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="Y43" t="n">
-        <v>510.5251492115494</v>
+        <v>247.3337308726216</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
         <v>2059.358867610191</v>
@@ -7684,16 +7684,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7727,25 +7727,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>138.7081686256434</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>287.7778528277033</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L45" t="n">
-        <v>534.5429807341673</v>
+        <v>659.3731057211721</v>
       </c>
       <c r="M45" t="n">
-        <v>1302.911127126629</v>
+        <v>1427.741252113633</v>
       </c>
       <c r="N45" t="n">
-        <v>1632.773754790662</v>
+        <v>1757.603879777666</v>
       </c>
       <c r="O45" t="n">
-        <v>2302.237516093321</v>
+        <v>2037.143944996363</v>
       </c>
       <c r="P45" t="n">
-        <v>2507.25999687553</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>868.4856756861153</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="C46" t="n">
-        <v>699.5494927582084</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="D46" t="n">
-        <v>549.4328533458727</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E46" t="n">
-        <v>401.5197597634796</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F46" t="n">
-        <v>254.6298122655692</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G46" t="n">
         <v>97.21709146028584</v>
@@ -7833,25 +7833,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S46" t="n">
-        <v>1498.916270557902</v>
+        <v>1375.025382843599</v>
       </c>
       <c r="T46" t="n">
-        <v>1498.916270557902</v>
+        <v>1151.239967633105</v>
       </c>
       <c r="U46" t="n">
-        <v>1498.916270557902</v>
+        <v>862.1113288466635</v>
       </c>
       <c r="V46" t="n">
-        <v>1498.916270557902</v>
+        <v>607.4268406407766</v>
       </c>
       <c r="W46" t="n">
-        <v>1498.916270557902</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="X46" t="n">
-        <v>1270.926719659885</v>
+        <v>318.0096706038159</v>
       </c>
       <c r="Y46" t="n">
-        <v>1050.134140516355</v>
+        <v>97.21709146028584</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8549,10 +8549,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747073</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8780,16 +8780,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>177.6241611124074</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P12" t="n">
-        <v>199.0269485415595</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>6.900745232382377</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,28 +9005,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>6.233205181928483</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>15.92129162592956</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>347.1032070028303</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9251,7 +9251,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>48.10560617263471</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>72.06980385012409</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9482,25 +9482,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>80.79071671254567</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>48.10560617263471</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9728,19 +9728,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q24" t="n">
-        <v>91.23759968302093</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9962,22 +9962,22 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>409.700368322958</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>234.4116509503169</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>124.340078086323</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
@@ -10205,10 +10205,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>199.7396287231156</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10430,10 +10430,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>96.03744927814716</v>
+        <v>176.7176547498455</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10442,13 +10442,13 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>34.78428385445218</v>
@@ -10664,13 +10664,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10682,10 +10682,10 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>253.7371603504743</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>34.78428385445218</v>
@@ -10843,7 +10843,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599068</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10904,16 +10904,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>288.4091825776758</v>
       </c>
       <c r="M39" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>87.16935584025447</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298295</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11144,19 +11144,19 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>423.3376789165117</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>124.3400780863232</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11390,13 +11390,13 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>87.16935584025424</v>
       </c>
       <c r="Q45" t="n">
-        <v>29.47535963978235</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>34.78428385445218</v>
@@ -22552,7 +22552,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -22561,13 +22561,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>89.79231049789962</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,22 +22594,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22704,25 +22704,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -22758,22 +22758,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>125.6900249618416</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22798,7 +22798,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>164.3604017932786</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -22831,28 +22831,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22941,28 +22941,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>69.71537485361746</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22992,25 +22992,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -23020,19 +23020,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -23041,7 +23041,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23068,13 +23068,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>29.70587550962413</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -23089,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -23178,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>67.90174060238481</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23232,22 +23232,22 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>72.36550727044499</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,13 +23305,13 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>54.4784025748117</v>
+        <v>27.47001067514603</v>
       </c>
       <c r="S11" t="n">
-        <v>174.4157128089715</v>
+        <v>164.6180294004008</v>
       </c>
       <c r="T11" t="n">
-        <v>31.86743971662654</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23320,13 +23320,13 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23418,28 +23418,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>128.0571403890124</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>167.1169375972939</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>154.4561466672649</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>129.1656554187738</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>31.56442760231858</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,31 +23460,31 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>29.1227499549143</v>
+        <v>12.97296450542763</v>
       </c>
       <c r="R13" t="n">
-        <v>146.6651919801578</v>
+        <v>130.1231110776784</v>
       </c>
       <c r="S13" t="n">
-        <v>212.1455389500189</v>
+        <v>208.7844338901268</v>
       </c>
       <c r="T13" t="n">
-        <v>225.0351054580843</v>
+        <v>224.2110473578499</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2818742419777</v>
+        <v>286.2713543513364</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23509,13 +23509,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>412.9169039459368</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>118.4960408938906</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,25 +23545,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>154.6528871281403</v>
       </c>
       <c r="T14" t="n">
         <v>212.651863114966</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>71.4359074969571</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>188.223135462343</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.9207765545704</v>
@@ -23673,10 +23673,10 @@
         <v>152.7120966692326</v>
       </c>
       <c r="I16" t="n">
-        <v>123.266557879417</v>
+        <v>123.2665578794171</v>
       </c>
       <c r="J16" t="n">
-        <v>17.69584188176906</v>
+        <v>17.6958418817692</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>129.1731816677914</v>
+        <v>129.1731816677915</v>
       </c>
       <c r="S16" t="n">
         <v>205.3658819001187</v>
@@ -23709,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>58.35886639452414</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>212.413722987777</v>
       </c>
     </row>
     <row r="17">
@@ -23731,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>215.1540668536535</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I17" t="n">
-        <v>110.4925755599893</v>
+        <v>118.4960408938903</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>149.9222220274004</v>
+        <v>154.6528871281402</v>
       </c>
       <c r="T17" t="n">
-        <v>211.7430979376325</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.1381782921609</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>229.1061874185698</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,22 +23898,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>90.88755127286419</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>37.60035094323487</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>205.3658819001186</v>
       </c>
       <c r="T19" t="n">
-        <v>222.9750205747625</v>
+        <v>223.3729047207587</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2555752860204</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -23958,7 +23958,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>215.1540668536535</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I20" t="n">
-        <v>110.4925755599893</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,13 +24019,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>149.9222220274004</v>
+        <v>51.45120708834571</v>
       </c>
       <c r="T20" t="n">
-        <v>211.7430979376325</v>
+        <v>212.651863114966</v>
       </c>
       <c r="U20" t="n">
-        <v>251.1381782921609</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24034,7 +24034,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24141,16 +24141,16 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.8276547331671</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>152.7120966692326</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J22" t="n">
-        <v>11.1121291085505</v>
+        <v>17.69584188176898</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>2.228956879014405</v>
+        <v>129.1731816677913</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>59.49404796591531</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2555752860204</v>
+        <v>286.260654658097</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -24414,7 +24414,7 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338454</v>
+        <v>82.39383318338545</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24600,10 +24600,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>150.6837655255582</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>1.626267181799562</v>
       </c>
       <c r="S28" t="n">
         <v>197.9208099836032</v>
@@ -24657,10 +24657,10 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24837,22 +24837,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>91.46278879032573</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.4935684633776</v>
+        <v>123.1101375871003</v>
       </c>
       <c r="H31" t="n">
         <v>148.9138283675361</v>
@@ -24888,22 +24888,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S31" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,22 +25125,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S34" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5475610583892</v>
+        <v>82.39383318338548</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>112.2167382934142</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -25311,22 +25311,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>64.3050033817197</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>86.78148790160515</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H37" t="n">
         <v>148.9138283675361</v>
@@ -25368,19 +25368,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>1.335820343228988e-12</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>48.75693659211571</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -25605,7 +25605,7 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U40" t="n">
-        <v>228.5889167740527</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25678,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>104.3973925701918</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25800,7 +25800,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H43" t="n">
         <v>148.9138283675361</v>
@@ -25839,7 +25839,7 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>33.08849621799493</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25848,13 +25848,13 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>10.65497486614709</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H46" t="n">
         <v>148.9138283675361</v>
@@ -26073,22 +26073,22 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S46" t="n">
-        <v>197.9208099836032</v>
+        <v>75.26883114644322</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>738255.8117143273</v>
+        <v>1029539.671513649</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>738255.8117143273</v>
+        <v>1029539.671513649</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>738255.8117143274</v>
+        <v>1029539.671513649</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>738255.8117143273</v>
+        <v>794019.5173546686</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>850734.3394778263</v>
+        <v>850734.339477826</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>877629.7546848832</v>
+        <v>850734.3394778266</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>877629.7546848831</v>
+        <v>850734.3394778265</v>
       </c>
     </row>
     <row r="9">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>974114.4331976599</v>
+        <v>974114.4331976598</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>974114.4331976598</v>
+        <v>974114.4331976599</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>974114.4331976599</v>
+        <v>974114.4331976598</v>
       </c>
     </row>
   </sheetData>
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>318067.8710173335</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="C2" t="n">
-        <v>318067.8710173335</v>
+        <v>451572.973425356</v>
       </c>
       <c r="D2" t="n">
-        <v>318067.8710173335</v>
+        <v>451572.9734253559</v>
       </c>
       <c r="E2" t="n">
-        <v>318067.8710173335</v>
+        <v>344562.5801003059</v>
       </c>
       <c r="F2" t="n">
+        <v>371509.2212626557</v>
+      </c>
+      <c r="G2" t="n">
+        <v>371509.2212626564</v>
+      </c>
+      <c r="H2" t="n">
         <v>371509.2212626561</v>
       </c>
-      <c r="G2" t="n">
-        <v>384288.3862804904</v>
-      </c>
-      <c r="H2" t="n">
-        <v>384288.3862804904</v>
-      </c>
       <c r="I2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="J2" t="n">
-        <v>430131.9657114795</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="K2" t="n">
-        <v>430131.9657114797</v>
+        <v>430131.9657114798</v>
       </c>
       <c r="L2" t="n">
         <v>430131.9657114797</v>
@@ -26349,10 +26349,10 @@
         <v>430131.9657114798</v>
       </c>
       <c r="N2" t="n">
+        <v>430131.9657114797</v>
+      </c>
+      <c r="O2" t="n">
         <v>430131.9657114798</v>
-      </c>
-      <c r="O2" t="n">
-        <v>430131.9657114795</v>
       </c>
       <c r="P2" t="n">
         <v>430131.9657114798</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,22 +26374,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>123022.0575261897</v>
       </c>
       <c r="F3" t="n">
-        <v>242330.9539870007</v>
+        <v>122192.1638359301</v>
       </c>
       <c r="G3" t="n">
-        <v>57494.41823181693</v>
+        <v>1.855568143582786e-09</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>199831.8565861952</v>
+        <v>255532.1595990976</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>30961.93223513061</v>
       </c>
       <c r="N3" t="n">
-        <v>61381.19620826756</v>
+        <v>30950.65265136665</v>
       </c>
       <c r="O3" t="n">
-        <v>15228.98433687142</v>
+        <v>5.198181725063478e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44802.65617556861</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="C4" t="n">
-        <v>44802.6561755686</v>
+        <v>183348.6868571279</v>
       </c>
       <c r="D4" t="n">
-        <v>44802.6561755686</v>
+        <v>183348.686857128</v>
       </c>
       <c r="E4" t="n">
-        <v>44802.65617556861</v>
+        <v>42822.33557352067</v>
       </c>
       <c r="F4" t="n">
-        <v>40808.29226915611</v>
+        <v>40808.29226915613</v>
       </c>
       <c r="G4" t="n">
-        <v>39853.96180754823</v>
+        <v>40808.2922691561</v>
       </c>
       <c r="H4" t="n">
-        <v>39853.96180754823</v>
+        <v>40808.2922691561</v>
       </c>
       <c r="I4" t="n">
         <v>36432.48351773395</v>
@@ -26444,22 +26444,22 @@
         <v>36432.48351773394</v>
       </c>
       <c r="K4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="L4" t="n">
-        <v>36432.48351773395</v>
+        <v>36432.483517734</v>
       </c>
       <c r="M4" t="n">
         <v>36432.48351773395</v>
       </c>
       <c r="N4" t="n">
-        <v>36432.48351773397</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="O4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773395</v>
       </c>
       <c r="P4" t="n">
-        <v>36432.48351773394</v>
+        <v>36432.48351773395</v>
       </c>
     </row>
     <row r="5">
@@ -26478,37 +26478,37 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>49231.47806340946</v>
+        <v>59117.0303284981</v>
       </c>
       <c r="F5" t="n">
-        <v>69171.54328360147</v>
+        <v>69171.54328360136</v>
       </c>
       <c r="G5" t="n">
-        <v>74144.87427222251</v>
+        <v>69171.54328360151</v>
       </c>
       <c r="H5" t="n">
-        <v>74144.87427222251</v>
+        <v>69171.54328360151</v>
       </c>
       <c r="I5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="J5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="K5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="L5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="M5" t="n">
         <v>91987.32594871662</v>
       </c>
       <c r="N5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871661</v>
       </c>
       <c r="O5" t="n">
-        <v>91987.32594871661</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="P5" t="n">
         <v>91987.32594871662</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-399561.742436189</v>
+        <v>-404602.6707097261</v>
       </c>
       <c r="C6" t="n">
-        <v>190406.1367783554</v>
+        <v>185365.2085048186</v>
       </c>
       <c r="D6" t="n">
-        <v>190406.1367783554</v>
+        <v>185365.2085048185</v>
       </c>
       <c r="E6" t="n">
-        <v>224033.7367783555</v>
+        <v>114737.0478845951</v>
       </c>
       <c r="F6" t="n">
-        <v>19198.43172289783</v>
+        <v>135697.9604120273</v>
       </c>
       <c r="G6" t="n">
-        <v>212795.1319689027</v>
+        <v>257890.124247956</v>
       </c>
       <c r="H6" t="n">
-        <v>270289.5502007196</v>
+        <v>257890.1242479576</v>
       </c>
       <c r="I6" t="n">
-        <v>101880.2996588339</v>
+        <v>45205.40538620996</v>
       </c>
       <c r="J6" t="n">
-        <v>125288.937052436</v>
+        <v>124314.3457927146</v>
       </c>
       <c r="K6" t="n">
-        <v>301712.1562450292</v>
+        <v>300737.5649853076</v>
       </c>
       <c r="L6" t="n">
-        <v>301712.1562450292</v>
+        <v>300737.5649853075</v>
       </c>
       <c r="M6" t="n">
-        <v>301712.1562450292</v>
+        <v>269775.6327501769</v>
       </c>
       <c r="N6" t="n">
-        <v>240330.9600367616</v>
+        <v>269786.9123339409</v>
       </c>
       <c r="O6" t="n">
-        <v>286483.1719081576</v>
+        <v>300737.564985307</v>
       </c>
       <c r="P6" t="n">
-        <v>301712.1562450292</v>
+        <v>300737.5649853076</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
@@ -26746,22 +26746,22 @@
         <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>377.7436642170867</v>
+        <v>484.6958857368659</v>
       </c>
       <c r="F3" t="n">
-        <v>593.4761003380645</v>
+        <v>593.4761003380634</v>
       </c>
       <c r="G3" t="n">
-        <v>645.1163831162993</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="H3" t="n">
-        <v>645.1163831162993</v>
+        <v>593.4761003380651</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
         <v>830.3824054541002</v>
@@ -26798,16 +26798,16 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>674.2872727545556</v>
+        <v>798.5305924249083</v>
       </c>
       <c r="F4" t="n">
-        <v>924.8974390827575</v>
+        <v>924.8974390827563</v>
       </c>
       <c r="G4" t="n">
-        <v>988.1798868468288</v>
+        <v>924.8974390827582</v>
       </c>
       <c r="H4" t="n">
-        <v>988.1798868468288</v>
+        <v>924.8974390827582</v>
       </c>
       <c r="I4" t="n">
         <v>1215.213643253573</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,19 +26968,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>106.9522215197792</v>
       </c>
       <c r="F3" t="n">
-        <v>215.7324361209778</v>
+        <v>108.7802146011974</v>
       </c>
       <c r="G3" t="n">
-        <v>51.64028277823479</v>
+        <v>1.70530256582424e-12</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>185.266022337801</v>
+        <v>236.9063051160351</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,22 +27020,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>124.2433196703526</v>
       </c>
       <c r="F4" t="n">
-        <v>250.6101663282019</v>
+        <v>126.366846657848</v>
       </c>
       <c r="G4" t="n">
-        <v>63.28244776407132</v>
+        <v>1.932676241267473e-12</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>227.0337564067443</v>
+        <v>290.3162041708149</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,13 +27044,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>124.2433196703529</v>
       </c>
       <c r="N4" t="n">
-        <v>250.6101663282021</v>
+        <v>126.3668466578476</v>
       </c>
       <c r="O4" t="n">
-        <v>63.28244776407087</v>
+        <v>2.160049916710705e-12</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>124.2433196703526</v>
       </c>
       <c r="N4" t="n">
-        <v>250.6101663282019</v>
+        <v>126.366846657848</v>
       </c>
       <c r="O4" t="n">
-        <v>63.28244776407132</v>
+        <v>1.932676241267473e-12</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27384,19 +27384,19 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>128.1430790558417</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27441,13 +27441,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27581,31 +27581,31 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>109.9858968992124</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27633,10 +27633,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,16 +27663,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>52.29215994072533</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>107.5829646831822</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27791,13 +27791,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,31 +27818,31 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,19 +27900,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>231.446377824479</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28010,10 +28010,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>152.7829238717193</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28055,31 +28055,31 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -29763,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.518567494340046</v>
+        <v>1.948526173816545</v>
       </c>
       <c r="H11" t="n">
-        <v>15.55202935141</v>
+        <v>19.9553436775987</v>
       </c>
       <c r="I11" t="n">
-        <v>58.54457332554468</v>
+        <v>75.12055531606242</v>
       </c>
       <c r="J11" t="n">
-        <v>128.8865178727436</v>
+        <v>165.3787233449621</v>
       </c>
       <c r="K11" t="n">
-        <v>193.1674799081578</v>
+        <v>247.8598362826165</v>
       </c>
       <c r="L11" t="n">
-        <v>239.641339863067</v>
+        <v>307.4920441745547</v>
       </c>
       <c r="M11" t="n">
-        <v>266.6471645405368</v>
+        <v>342.1441465181646</v>
       </c>
       <c r="N11" t="n">
-        <v>270.9617944338304</v>
+        <v>347.680396509521</v>
       </c>
       <c r="O11" t="n">
-        <v>255.8615389119866</v>
+        <v>328.3047393686326</v>
       </c>
       <c r="P11" t="n">
-        <v>218.3719038954667</v>
+        <v>280.2004994525366</v>
       </c>
       <c r="Q11" t="n">
-        <v>163.9882055044137</v>
+        <v>210.4189058527316</v>
       </c>
       <c r="R11" t="n">
-        <v>95.39071536633799</v>
+        <v>122.3991072660037</v>
       </c>
       <c r="S11" t="n">
-        <v>34.60435677727383</v>
+        <v>44.40204018584456</v>
       </c>
       <c r="T11" t="n">
-        <v>6.647529206473554</v>
+        <v>8.52967332588193</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1558820939053236</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8125052400141111</v>
+        <v>1.042553414603825</v>
       </c>
       <c r="H12" t="n">
-        <v>7.847090081188916</v>
+        <v>10.06887113577905</v>
       </c>
       <c r="I12" t="n">
-        <v>27.9744128689069</v>
+        <v>35.89493116070187</v>
       </c>
       <c r="J12" t="n">
-        <v>76.76392708396477</v>
+        <v>98.49843466658331</v>
       </c>
       <c r="K12" t="n">
-        <v>131.2017781649102</v>
+        <v>168.3495134450396</v>
       </c>
       <c r="L12" t="n">
-        <v>176.4169820478007</v>
+        <v>226.3666964472033</v>
       </c>
       <c r="M12" t="n">
-        <v>205.8702969983122</v>
+        <v>264.1592577265919</v>
       </c>
       <c r="N12" t="n">
-        <v>211.31907117367</v>
+        <v>271.1507672482115</v>
       </c>
       <c r="O12" t="n">
-        <v>193.3156655923047</v>
+        <v>248.0499784298846</v>
       </c>
       <c r="P12" t="n">
-        <v>155.1528646479578</v>
+        <v>199.0819761623742</v>
       </c>
       <c r="Q12" t="n">
-        <v>103.7155811639065</v>
+        <v>133.0810288536391</v>
       </c>
       <c r="R12" t="n">
-        <v>50.44659727034983</v>
+        <v>64.72976375934978</v>
       </c>
       <c r="S12" t="n">
-        <v>15.09192847131473</v>
+        <v>19.36497241599647</v>
       </c>
       <c r="T12" t="n">
-        <v>3.274966296372666</v>
+        <v>4.202221877284714</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.06858904043446219</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.8740417611648401</v>
       </c>
       <c r="H13" t="n">
-        <v>6.056283665644443</v>
+        <v>7.771025840174675</v>
       </c>
       <c r="I13" t="n">
-        <v>20.48485313492005</v>
+        <v>26.28481950848447</v>
       </c>
       <c r="J13" t="n">
-        <v>48.15922092813578</v>
+        <v>61.79475251435419</v>
       </c>
       <c r="K13" t="n">
-        <v>79.14039391302239</v>
+        <v>101.5477609789696</v>
       </c>
       <c r="L13" t="n">
-        <v>101.2724571246924</v>
+        <v>129.9461723826345</v>
       </c>
       <c r="M13" t="n">
-        <v>106.777606591725</v>
+        <v>137.0100189796849</v>
       </c>
       <c r="N13" t="n">
-        <v>104.2386737666594</v>
+        <v>133.7522269607979</v>
       </c>
       <c r="O13" t="n">
-        <v>96.28128674175845</v>
+        <v>123.541830023554</v>
       </c>
       <c r="P13" t="n">
-        <v>82.38527391383801</v>
+        <v>105.7113780957912</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.03929329678009</v>
+        <v>73.18907874626676</v>
       </c>
       <c r="R13" t="n">
-        <v>30.62819939701164</v>
+        <v>39.30009591564816</v>
       </c>
       <c r="S13" t="n">
-        <v>11.87105908695336</v>
+        <v>15.23216414684544</v>
       </c>
       <c r="T13" t="n">
-        <v>2.910483970197224</v>
+        <v>3.734542070431589</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.04767500515444588</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>2.385833569198248</v>
+        <v>2.385833569198243</v>
       </c>
       <c r="H14" t="n">
-        <v>24.43391804055156</v>
+        <v>24.43391804055151</v>
       </c>
       <c r="I14" t="n">
-        <v>91.97984867651553</v>
+        <v>91.97984867651535</v>
       </c>
       <c r="J14" t="n">
-        <v>202.4946418937399</v>
+        <v>202.4946418937396</v>
       </c>
       <c r="K14" t="n">
-        <v>303.4869768779018</v>
+        <v>303.4869768779012</v>
       </c>
       <c r="L14" t="n">
-        <v>376.5024309712527</v>
+        <v>376.502430971252</v>
       </c>
       <c r="M14" t="n">
-        <v>418.9314987074821</v>
+        <v>418.9314987074812</v>
       </c>
       <c r="N14" t="n">
-        <v>425.7102483359666</v>
+        <v>425.7102483359658</v>
       </c>
       <c r="O14" t="n">
-        <v>401.9861157822515</v>
+        <v>401.9861157822507</v>
       </c>
       <c r="P14" t="n">
-        <v>343.0858495426697</v>
+        <v>343.0858495426691</v>
       </c>
       <c r="Q14" t="n">
-        <v>257.6431848457574</v>
+        <v>257.6431848457569</v>
       </c>
       <c r="R14" t="n">
-        <v>149.8691179411495</v>
+        <v>149.8691179411493</v>
       </c>
       <c r="S14" t="n">
-        <v>54.36718245810512</v>
+        <v>54.36718245810501</v>
       </c>
       <c r="T14" t="n">
-        <v>10.44398644916533</v>
+        <v>10.44398644916531</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1908666855358598</v>
+        <v>0.1908666855358594</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.276533498840365</v>
+        <v>1.276533498840363</v>
       </c>
       <c r="H15" t="n">
-        <v>12.328626159853</v>
+        <v>12.32862615985298</v>
       </c>
       <c r="I15" t="n">
-        <v>43.95082441182837</v>
+        <v>43.95082441182829</v>
       </c>
       <c r="J15" t="n">
-        <v>120.6044214847382</v>
+        <v>120.604421484738</v>
       </c>
       <c r="K15" t="n">
-        <v>206.1321659070427</v>
+        <v>206.1321659070423</v>
       </c>
       <c r="L15" t="n">
-        <v>277.1701353512819</v>
+        <v>277.1701353512814</v>
       </c>
       <c r="M15" t="n">
-        <v>323.4444746842451</v>
+        <v>323.4444746842445</v>
       </c>
       <c r="N15" t="n">
-        <v>332.005087490065</v>
+        <v>332.0050874900643</v>
       </c>
       <c r="O15" t="n">
-        <v>303.7197925947074</v>
+        <v>303.7197925947068</v>
       </c>
       <c r="P15" t="n">
-        <v>243.7619099671571</v>
+        <v>243.7619099671567</v>
       </c>
       <c r="Q15" t="n">
-        <v>162.9483813607456</v>
+        <v>162.9483813607453</v>
       </c>
       <c r="R15" t="n">
-        <v>79.25705355080797</v>
+        <v>79.25705355080781</v>
       </c>
       <c r="S15" t="n">
-        <v>23.71104985784624</v>
+        <v>23.7110498578462</v>
       </c>
       <c r="T15" t="n">
-        <v>5.145325813308312</v>
+        <v>5.145325813308302</v>
       </c>
       <c r="U15" t="n">
-        <v>0.08398246702897143</v>
+        <v>0.08398246702897126</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.070202803888313</v>
+        <v>1.070202803888311</v>
       </c>
       <c r="H16" t="n">
-        <v>9.515075838207007</v>
+        <v>9.51507583820699</v>
       </c>
       <c r="I16" t="n">
-        <v>32.18391704784128</v>
+        <v>32.18391704784121</v>
       </c>
       <c r="J16" t="n">
-        <v>75.66333823490372</v>
+        <v>75.66333823490358</v>
       </c>
       <c r="K16" t="n">
-        <v>124.338107579024</v>
+        <v>124.3381075790237</v>
       </c>
       <c r="L16" t="n">
-        <v>159.1099695889952</v>
+        <v>159.1099695889949</v>
       </c>
       <c r="M16" t="n">
-        <v>167.7591540676925</v>
+        <v>167.7591540676922</v>
       </c>
       <c r="N16" t="n">
-        <v>163.7702163441089</v>
+        <v>163.7702163441086</v>
       </c>
       <c r="O16" t="n">
-        <v>151.2683017714136</v>
+        <v>151.2683017714133</v>
       </c>
       <c r="P16" t="n">
-        <v>129.4361645720919</v>
+        <v>129.4361645720917</v>
       </c>
       <c r="Q16" t="n">
-        <v>89.61489115104774</v>
+        <v>89.61489115104756</v>
       </c>
       <c r="R16" t="n">
-        <v>48.12020970937813</v>
+        <v>48.12020970937804</v>
       </c>
       <c r="S16" t="n">
-        <v>18.65071613685359</v>
+        <v>18.65071613685356</v>
       </c>
       <c r="T16" t="n">
-        <v>4.57268470752279</v>
+        <v>4.572684707522781</v>
       </c>
       <c r="U16" t="n">
-        <v>0.05837469839390805</v>
+        <v>0.05837469839390793</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>2.59343269594492</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H17" t="n">
-        <v>26.55999259734592</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I17" t="n">
-        <v>99.98331401041662</v>
+        <v>91.9798486765156</v>
       </c>
       <c r="J17" t="n">
-        <v>220.1143582774553</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K17" t="n">
-        <v>329.8943642968039</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L17" t="n">
-        <v>409.2631301653283</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M17" t="n">
-        <v>455.3840888718387</v>
+        <v>418.9314987074824</v>
       </c>
       <c r="N17" t="n">
-        <v>462.7526795191923</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O17" t="n">
-        <v>436.9642331488899</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P17" t="n">
-        <v>372.9388634677497</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q17" t="n">
-        <v>280.0615550442221</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R17" t="n">
-        <v>162.9097165866502</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S17" t="n">
-        <v>59.09784755884492</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T17" t="n">
-        <v>11.35275162649889</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2074746156755936</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.387608824061474</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H18" t="n">
-        <v>13.40137995869897</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I18" t="n">
-        <v>47.77512837229198</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J18" t="n">
-        <v>131.0986038557378</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K18" t="n">
-        <v>224.0683950678565</v>
+        <v>206.1321659070428</v>
       </c>
       <c r="L18" t="n">
-        <v>301.2876089261547</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M18" t="n">
-        <v>351.5884287983831</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N18" t="n">
-        <v>360.893928324655</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O18" t="n">
-        <v>330.1474380651876</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P18" t="n">
-        <v>264.9724253595985</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q18" t="n">
-        <v>177.1270491907243</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R18" t="n">
-        <v>86.15346716409752</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S18" t="n">
-        <v>25.77422530658043</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T18" t="n">
-        <v>5.593037321546027</v>
+        <v>5.145325813308316</v>
       </c>
       <c r="U18" t="n">
-        <v>0.09129005421457069</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.163324625291687</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H19" t="n">
-        <v>10.34301348668428</v>
+        <v>9.515075838207014</v>
       </c>
       <c r="I19" t="n">
-        <v>34.98434418604457</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J19" t="n">
-        <v>82.24705100812227</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K19" t="n">
-        <v>135.1571701020705</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L19" t="n">
-        <v>172.9546447456387</v>
+        <v>159.1099695889953</v>
       </c>
       <c r="M19" t="n">
-        <v>182.3564228536778</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N19" t="n">
-        <v>178.0203947048635</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O19" t="n">
-        <v>164.4306479457742</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P19" t="n">
-        <v>140.6988255898236</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q19" t="n">
-        <v>97.41257385056119</v>
+        <v>89.61489115104781</v>
       </c>
       <c r="R19" t="n">
-        <v>52.30730542447893</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S19" t="n">
-        <v>20.27357551531058</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T19" t="n">
-        <v>4.970568853519025</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U19" t="n">
-        <v>0.06345407047045573</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>2.59343269594492</v>
+        <v>2.38583356919825</v>
       </c>
       <c r="H20" t="n">
-        <v>26.55999259734592</v>
+        <v>24.43391804055158</v>
       </c>
       <c r="I20" t="n">
-        <v>99.98331401041662</v>
+        <v>91.97984867651562</v>
       </c>
       <c r="J20" t="n">
-        <v>220.1143582774553</v>
+        <v>202.4946418937401</v>
       </c>
       <c r="K20" t="n">
-        <v>329.8943642968039</v>
+        <v>303.4869768779021</v>
       </c>
       <c r="L20" t="n">
-        <v>409.2631301653283</v>
+        <v>376.5024309712531</v>
       </c>
       <c r="M20" t="n">
-        <v>455.3840888718387</v>
+        <v>418.9314987074825</v>
       </c>
       <c r="N20" t="n">
-        <v>462.7526795191923</v>
+        <v>425.710248335967</v>
       </c>
       <c r="O20" t="n">
-        <v>436.9642331488899</v>
+        <v>401.9861157822519</v>
       </c>
       <c r="P20" t="n">
-        <v>372.9388634677497</v>
+        <v>343.0858495426701</v>
       </c>
       <c r="Q20" t="n">
-        <v>280.0615550442221</v>
+        <v>257.6431848457577</v>
       </c>
       <c r="R20" t="n">
-        <v>162.9097165866502</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>59.09784755884492</v>
+        <v>54.36718245810517</v>
       </c>
       <c r="T20" t="n">
-        <v>11.35275162649889</v>
+        <v>10.44398644916534</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2074746156755936</v>
+        <v>0.1908666855358599</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.387608824061474</v>
+        <v>1.276533498840366</v>
       </c>
       <c r="H21" t="n">
-        <v>13.40137995869897</v>
+        <v>12.32862615985301</v>
       </c>
       <c r="I21" t="n">
-        <v>47.77512837229198</v>
+        <v>43.95082441182841</v>
       </c>
       <c r="J21" t="n">
-        <v>131.0986038557378</v>
+        <v>120.6044214847383</v>
       </c>
       <c r="K21" t="n">
-        <v>224.0683950678565</v>
+        <v>206.1321659070429</v>
       </c>
       <c r="L21" t="n">
-        <v>301.2876089261547</v>
+        <v>277.1701353512822</v>
       </c>
       <c r="M21" t="n">
-        <v>351.5884287983831</v>
+        <v>323.4444746842454</v>
       </c>
       <c r="N21" t="n">
-        <v>360.893928324655</v>
+        <v>332.0050874900653</v>
       </c>
       <c r="O21" t="n">
-        <v>330.1474380651876</v>
+        <v>303.7197925947077</v>
       </c>
       <c r="P21" t="n">
-        <v>264.9724253595985</v>
+        <v>243.7619099671574</v>
       </c>
       <c r="Q21" t="n">
-        <v>177.1270491907243</v>
+        <v>162.9483813607457</v>
       </c>
       <c r="R21" t="n">
-        <v>86.15346716409752</v>
+        <v>79.25705355080804</v>
       </c>
       <c r="S21" t="n">
-        <v>25.77422530658043</v>
+        <v>23.71104985784626</v>
       </c>
       <c r="T21" t="n">
-        <v>5.593037321546027</v>
+        <v>5.145325813308317</v>
       </c>
       <c r="U21" t="n">
-        <v>0.09129005421457069</v>
+        <v>0.08398246702897151</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.163324625291687</v>
+        <v>1.070202803888314</v>
       </c>
       <c r="H22" t="n">
-        <v>10.34301348668428</v>
+        <v>9.515075838207016</v>
       </c>
       <c r="I22" t="n">
-        <v>34.98434418604457</v>
+        <v>32.18391704784131</v>
       </c>
       <c r="J22" t="n">
-        <v>82.24705100812227</v>
+        <v>75.66333823490379</v>
       </c>
       <c r="K22" t="n">
-        <v>135.1571701020705</v>
+        <v>124.3381075790241</v>
       </c>
       <c r="L22" t="n">
-        <v>172.9546447456387</v>
+        <v>159.1099695889954</v>
       </c>
       <c r="M22" t="n">
-        <v>182.3564228536778</v>
+        <v>167.7591540676927</v>
       </c>
       <c r="N22" t="n">
-        <v>178.0203947048635</v>
+        <v>163.7702163441091</v>
       </c>
       <c r="O22" t="n">
-        <v>164.4306479457742</v>
+        <v>151.2683017714137</v>
       </c>
       <c r="P22" t="n">
-        <v>140.6988255898236</v>
+        <v>129.436164572092</v>
       </c>
       <c r="Q22" t="n">
-        <v>97.41257385056119</v>
+        <v>89.61489115104783</v>
       </c>
       <c r="R22" t="n">
-        <v>52.30730542447893</v>
+        <v>48.12020970937817</v>
       </c>
       <c r="S22" t="n">
-        <v>20.27357551531058</v>
+        <v>18.65071613685361</v>
       </c>
       <c r="T22" t="n">
-        <v>4.970568853519025</v>
+        <v>4.572684707522795</v>
       </c>
       <c r="U22" t="n">
-        <v>0.06345407047045573</v>
+        <v>0.0583746983939081</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,16 +32700,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32718,7 +32718,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32727,7 +32727,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32736,7 +32736,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32779,7 +32779,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32788,7 +32788,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32797,10 +32797,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32815,10 +32815,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32879,7 +32879,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32891,16 +32891,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,16 +32937,16 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
         <v>424.6341946041488</v>
@@ -32955,7 +32955,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
         <v>595.6470695927186</v>
@@ -32964,7 +32964,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
         <v>360.4902833647496</v>
@@ -32973,7 +32973,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33016,7 +33016,7 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
@@ -33025,7 +33025,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33034,10 +33034,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
         <v>424.9599466855526</v>
@@ -33052,10 +33052,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33116,7 +33116,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33128,16 +33128,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,13 +34789,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -35269,10 +35269,10 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735647</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>116.9372285181311</v>
+        <v>153.4294339903496</v>
       </c>
       <c r="K11" t="n">
-        <v>297.223041434342</v>
+        <v>351.9153978088007</v>
       </c>
       <c r="L11" t="n">
-        <v>421.5361394435302</v>
+        <v>489.3868437550179</v>
       </c>
       <c r="M11" t="n">
-        <v>485.8144648060966</v>
+        <v>561.3114467837244</v>
       </c>
       <c r="N11" t="n">
-        <v>478.8956552492237</v>
+        <v>555.6142573249142</v>
       </c>
       <c r="O11" t="n">
-        <v>406.5635087530452</v>
+        <v>479.0067092096913</v>
       </c>
       <c r="P11" t="n">
-        <v>308.9376163116798</v>
+        <v>370.7662118687497</v>
       </c>
       <c r="Q11" t="n">
-        <v>153.9975062898689</v>
+        <v>200.4282066381868</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>76.01733575770692</v>
+        <v>97.75184334032545</v>
       </c>
       <c r="K12" t="n">
-        <v>257.8255762031298</v>
+        <v>294.9733114832592</v>
       </c>
       <c r="L12" t="n">
-        <v>408.7029475713857</v>
+        <v>458.6526619707883</v>
       </c>
       <c r="M12" t="n">
-        <v>529.4413268262938</v>
+        <v>587.7302875545735</v>
       </c>
       <c r="N12" t="n">
-        <v>559.3197334338903</v>
+        <v>317.4332162772856</v>
       </c>
       <c r="O12" t="n">
-        <v>444.5817404245898</v>
+        <v>499.3160532621697</v>
       </c>
       <c r="P12" t="n">
-        <v>220.205405775187</v>
+        <v>383.5703373879812</v>
       </c>
       <c r="Q12" t="n">
-        <v>173.8110948137341</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>56.87090208713954</v>
+        <v>79.27826915308673</v>
       </c>
       <c r="L13" t="n">
-        <v>128.8624823850085</v>
+        <v>157.5361976429507</v>
       </c>
       <c r="M13" t="n">
-        <v>146.3614835535656</v>
+        <v>176.5938959415255</v>
       </c>
       <c r="N13" t="n">
-        <v>148.370846145888</v>
+        <v>177.8843993400264</v>
       </c>
       <c r="O13" t="n">
-        <v>120.8664146557981</v>
+        <v>148.1269579375937</v>
       </c>
       <c r="P13" t="n">
-        <v>79.66383317873149</v>
+        <v>102.9899373606846</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.5453525391274</v>
+        <v>190.545352539127</v>
       </c>
       <c r="K14" t="n">
-        <v>407.542538404086</v>
+        <v>407.5425384040854</v>
       </c>
       <c r="L14" t="n">
-        <v>558.3972305517159</v>
+        <v>558.3972305517152</v>
       </c>
       <c r="M14" t="n">
-        <v>638.0987989730419</v>
+        <v>638.098798973041</v>
       </c>
       <c r="N14" t="n">
-        <v>633.6441091513599</v>
+        <v>633.6441091513591</v>
       </c>
       <c r="O14" t="n">
-        <v>552.6880856233101</v>
+        <v>552.6880856233093</v>
       </c>
       <c r="P14" t="n">
-        <v>433.6515619588828</v>
+        <v>433.6515619588822</v>
       </c>
       <c r="Q14" t="n">
-        <v>247.6524856312126</v>
+        <v>247.6524856312121</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>119.8578301584801</v>
       </c>
       <c r="K15" t="n">
-        <v>84.21201855861322</v>
+        <v>332.7559639452619</v>
       </c>
       <c r="L15" t="n">
-        <v>509.4561008748669</v>
+        <v>485.7189625742375</v>
       </c>
       <c r="M15" t="n">
-        <v>647.0155045122267</v>
+        <v>647.015504512226</v>
       </c>
       <c r="N15" t="n">
-        <v>680.0057497502852</v>
+        <v>200.663375406731</v>
       </c>
       <c r="O15" t="n">
-        <v>554.9858674269925</v>
+        <v>161.1235481502624</v>
       </c>
       <c r="P15" t="n">
-        <v>109.7875025528269</v>
+        <v>428.2502711927636</v>
       </c>
       <c r="Q15" t="n">
-        <v>22.96660727472405</v>
+        <v>233.0438950105728</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,25 +35807,25 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>102.0686157531411</v>
+        <v>102.0686157531409</v>
       </c>
       <c r="L16" t="n">
-        <v>186.6999948493113</v>
+        <v>186.699994849311</v>
       </c>
       <c r="M16" t="n">
-        <v>207.3430310295331</v>
+        <v>207.3430310295328</v>
       </c>
       <c r="N16" t="n">
-        <v>207.9023887233375</v>
+        <v>207.9023887233372</v>
       </c>
       <c r="O16" t="n">
-        <v>175.8534296854533</v>
+        <v>175.853429685453</v>
       </c>
       <c r="P16" t="n">
-        <v>126.7147238369854</v>
+        <v>126.7147238369851</v>
       </c>
       <c r="Q16" t="n">
-        <v>3.452847899353358</v>
+        <v>3.452847899353173</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>208.1650689228428</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K17" t="n">
-        <v>433.9499258229881</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L17" t="n">
-        <v>591.1579297457915</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M17" t="n">
-        <v>674.5513891373985</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N17" t="n">
-        <v>670.6865403345855</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O17" t="n">
-        <v>587.6662029899486</v>
+        <v>552.6880856233106</v>
       </c>
       <c r="P17" t="n">
-        <v>463.5045758839628</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q17" t="n">
-        <v>270.0708558296773</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R17" t="n">
-        <v>13.04059864550052</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>130.3520125294799</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K18" t="n">
-        <v>350.6921931060762</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L18" t="n">
-        <v>533.5735744497397</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M18" t="n">
-        <v>209.4543948763647</v>
+        <v>229.4160469348618</v>
       </c>
       <c r="N18" t="n">
-        <v>229.5522162413217</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O18" t="n">
-        <v>581.4135128974726</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P18" t="n">
-        <v>449.4607865852054</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q18" t="n">
-        <v>109.2150789548269</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,25 +36044,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>112.8876782761877</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L19" t="n">
-        <v>200.5446700059548</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M19" t="n">
-        <v>221.9402998155184</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N19" t="n">
-        <v>222.1525670840921</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O19" t="n">
-        <v>189.0157758598138</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P19" t="n">
-        <v>137.9773848547171</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q19" t="n">
-        <v>11.2505305988668</v>
+        <v>3.452847899353429</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>208.1650689228428</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K20" t="n">
-        <v>433.9499258229881</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L20" t="n">
-        <v>591.1579297457915</v>
+        <v>558.3972305517163</v>
       </c>
       <c r="M20" t="n">
-        <v>674.5513891373985</v>
+        <v>638.0987989730422</v>
       </c>
       <c r="N20" t="n">
-        <v>670.6865403345855</v>
+        <v>633.6441091513602</v>
       </c>
       <c r="O20" t="n">
-        <v>587.6662029899486</v>
+        <v>552.6880856233105</v>
       </c>
       <c r="P20" t="n">
-        <v>463.5045758839628</v>
+        <v>433.6515619588832</v>
       </c>
       <c r="Q20" t="n">
-        <v>270.0708558296773</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R20" t="n">
-        <v>13.04059864550052</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>130.3520125294799</v>
+        <v>119.8578301584805</v>
       </c>
       <c r="K21" t="n">
-        <v>86.22695609349753</v>
+        <v>332.7559639452625</v>
       </c>
       <c r="L21" t="n">
-        <v>243.5239458588262</v>
+        <v>509.4561008748672</v>
       </c>
       <c r="M21" t="n">
-        <v>675.1594586263647</v>
+        <v>229.4160469348618</v>
       </c>
       <c r="N21" t="n">
-        <v>708.8945905848752</v>
+        <v>200.663375406732</v>
       </c>
       <c r="O21" t="n">
-        <v>581.4135128974726</v>
+        <v>554.9858674269929</v>
       </c>
       <c r="P21" t="n">
-        <v>130.9980179452683</v>
+        <v>428.2502711927643</v>
       </c>
       <c r="Q21" t="n">
-        <v>37.14527510470279</v>
+        <v>233.0438950105733</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,25 +36281,25 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>112.8876782761877</v>
+        <v>102.0686157531412</v>
       </c>
       <c r="L22" t="n">
-        <v>200.5446700059548</v>
+        <v>186.6999948493115</v>
       </c>
       <c r="M22" t="n">
-        <v>221.9402998155184</v>
+        <v>207.3430310295333</v>
       </c>
       <c r="N22" t="n">
-        <v>222.1525670840921</v>
+        <v>207.9023887233377</v>
       </c>
       <c r="O22" t="n">
-        <v>189.0157758598138</v>
+        <v>175.8534296854534</v>
       </c>
       <c r="P22" t="n">
-        <v>137.9773848547171</v>
+        <v>126.7147238369855</v>
       </c>
       <c r="Q22" t="n">
-        <v>11.2505305988668</v>
+        <v>3.452847899353443</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,13 +36360,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36381,7 +36381,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N24" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714618</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q24" t="n">
-        <v>179.2506324680951</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K25" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L25" t="n">
         <v>250.2141868799285</v>
@@ -36530,13 +36530,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O25" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P25" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,13 +36597,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
         <v>803.5809304081118</v>
@@ -36618,7 +36618,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
         <v>150.5754385879392</v>
@@ -36682,19 +36682,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>720.1247453734243</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415665</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>516.775353191425</v>
       </c>
       <c r="P27" t="n">
-        <v>207.0934149315247</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q27" t="n">
-        <v>88.01303278507413</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K28" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L28" t="n">
         <v>250.2141868799285</v>
@@ -36767,13 +36767,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O28" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P28" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q28" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36913,7 +36913,7 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K30" t="n">
-        <v>274.9155166742622</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L30" t="n">
         <v>620.0980502594834</v>
@@ -36925,10 +36925,10 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>482.1033309642237</v>
       </c>
       <c r="P30" t="n">
-        <v>207.0934149315246</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q30" t="n">
         <v>88.0130327850741</v>
@@ -37150,10 +37150,10 @@
         <v>41.91017895490666</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
-        <v>345.2951542341714</v>
+        <v>425.9753597058698</v>
       </c>
       <c r="M33" t="n">
         <v>310.4243770504662</v>
@@ -37162,13 +37162,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>88.0130327850741</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37384,13 +37384,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504662</v>
@@ -37402,10 +37402,10 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>460.8305752819989</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.0130327850741</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37563,7 +37563,7 @@
         <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502069</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
         <v>59.82538970349808</v>
@@ -37624,16 +37624,16 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560243</v>
+        <v>537.6668875337001</v>
       </c>
       <c r="M39" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>420.3639292382673</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
         <v>282.3637022411081</v>
@@ -37803,7 +37803,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349858</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37864,19 +37864,19 @@
         <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M42" t="n">
-        <v>776.1294408004661</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>756.5322523145245</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P42" t="n">
-        <v>207.0934149315246</v>
+        <v>331.4334930178478</v>
       </c>
       <c r="Q42" t="n">
         <v>88.0130327850741</v>
@@ -38095,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>41.91017895490666</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
         <v>150.5754385879392</v>
@@ -38110,13 +38110,13 @@
         <v>333.1945733980128</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P45" t="n">
-        <v>207.0934149315246</v>
+        <v>294.2627707717789</v>
       </c>
       <c r="Q45" t="n">
-        <v>117.4883924248565</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
